--- a/output/BR (100)_output.xlsx
+++ b/output/BR (100)_output.xlsx
@@ -413,16 +413,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.11</v>
+        <v>1.39</v>
       </c>
       <c r="C2">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="D2">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="E2">
-        <v>2.71</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -430,16 +430,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="C3">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="D3">
-        <v>2.19</v>
+        <v>2.28</v>
       </c>
       <c r="E3">
-        <v>2.37</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -447,16 +447,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="C4">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="D4">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="E4">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -464,16 +464,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="C5">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="D5">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="E5">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
     </row>
   </sheetData>
@@ -508,16 +508,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.009562580909914686</v>
+        <v>0.00964278457024193</v>
       </c>
       <c r="C2">
-        <v>0.006124714210018283</v>
+        <v>0.00621576395988086</v>
       </c>
       <c r="D2">
-        <v>0.20761554479599</v>
+        <v>0.1999019718170166</v>
       </c>
       <c r="E2">
-        <v>0.2213134479522705</v>
+        <v>0.1837350821495056</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -525,16 +525,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.007192682769891689</v>
+        <v>0.007342604290279268</v>
       </c>
       <c r="C3">
-        <v>0.006141635419953673</v>
+        <v>0.006185779689767515</v>
       </c>
       <c r="D3">
-        <v>0.3172741413116455</v>
+        <v>0.31076087474823</v>
       </c>
       <c r="E3">
-        <v>0.1801027798652649</v>
+        <v>0.1822459053993225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -542,16 +542,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.007457325200157357</v>
+        <v>0.00679982124001981</v>
       </c>
       <c r="C4">
-        <v>0.006270269869928597</v>
+        <v>0.006663707429943315</v>
       </c>
       <c r="D4">
-        <v>0.3746027183532715</v>
+        <v>0.3723125457763672</v>
       </c>
       <c r="E4">
-        <v>0.1834574103355408</v>
+        <v>0.1808716320991516</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -559,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.006472713560142438</v>
+        <v>0.006824873469740851</v>
       </c>
       <c r="C5">
-        <v>0.006711571730302239</v>
+        <v>0.00665860599012376</v>
       </c>
       <c r="D5">
-        <v>0.457590069770813</v>
+        <v>0.4524563431739807</v>
       </c>
       <c r="E5">
-        <v>0.1792523264884949</v>
+        <v>0.1845417928695679</v>
       </c>
     </row>
   </sheetData>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -620,16 +620,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -637,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -654,16 +654,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -671,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -688,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -705,16 +705,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -722,16 +722,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -739,16 +739,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
         <v>35</v>
-      </c>
-      <c r="E10">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -756,16 +756,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -773,16 +773,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -790,16 +790,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>60</v>
       </c>
       <c r="D13">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -807,16 +807,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D14">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -824,16 +824,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -841,16 +841,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -858,16 +858,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -875,16 +875,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -892,16 +892,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -909,16 +909,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E20">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -926,16 +926,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -943,16 +943,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -960,16 +960,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -977,16 +977,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C24">
+        <v>68</v>
+      </c>
+      <c r="D24">
         <v>9</v>
       </c>
-      <c r="D24">
-        <v>71</v>
-      </c>
       <c r="E24">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -994,16 +994,16 @@
         <v>23</v>
       </c>
       <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>73</v>
+      </c>
+      <c r="D25">
         <v>59</v>
       </c>
-      <c r="C25">
-        <v>59</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
       <c r="E25">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1011,16 +1011,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1028,16 +1028,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1045,16 +1045,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1062,16 +1062,16 @@
         <v>27</v>
       </c>
       <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>59</v>
       </c>
-      <c r="C29">
-        <v>59</v>
-      </c>
-      <c r="D29">
-        <v>19</v>
-      </c>
       <c r="E29">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1079,16 +1079,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30">
         <v>38</v>
-      </c>
-      <c r="E30">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1096,16 +1096,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1113,16 +1113,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1130,16 +1130,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33">
         <v>68</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1147,16 +1147,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1164,16 +1164,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E35">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1181,16 +1181,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E36">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1198,16 +1198,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1215,16 +1215,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C38">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E38">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1232,16 +1232,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C39">
+        <v>69</v>
+      </c>
+      <c r="D39">
         <v>63</v>
       </c>
-      <c r="D39">
-        <v>41</v>
-      </c>
       <c r="E39">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1249,16 +1249,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1266,16 +1266,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1283,16 +1283,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1300,16 +1300,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E43">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1317,16 +1317,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E44">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1334,16 +1334,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>23</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1351,16 +1351,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1368,16 +1368,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D47">
         <v>33</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1385,16 +1385,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1402,16 +1402,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="E49">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1419,16 +1419,16 @@
         <v>48</v>
       </c>
       <c r="B50">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <v>36</v>
+      </c>
+      <c r="D50">
+        <v>17</v>
+      </c>
+      <c r="E50">
         <v>59</v>
-      </c>
-      <c r="C50">
-        <v>59</v>
-      </c>
-      <c r="D50">
-        <v>6</v>
-      </c>
-      <c r="E50">
-        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1436,16 +1436,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1453,16 +1453,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C52">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1470,16 +1470,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1487,16 +1487,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C54">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1504,16 +1504,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1521,16 +1521,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E56">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1538,16 +1538,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C57">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D57">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1555,16 +1555,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C58">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E58">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1572,16 +1572,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E59">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1589,16 +1589,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D60">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E60">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1606,16 +1606,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C61">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D61">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1623,16 +1623,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>36</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1640,16 +1640,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E63">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1657,16 +1657,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C64">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E64">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1674,16 +1674,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C65">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D65">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E65">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1691,16 +1691,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C66">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1708,16 +1708,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D67">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E67">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1725,16 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C68">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1742,16 +1742,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E69">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1759,16 +1759,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D70">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E70">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1776,16 +1776,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C71">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D71">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1793,13 +1793,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D72">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E72">
         <v>56</v>
@@ -1810,16 +1810,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C73">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D73">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1827,16 +1827,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C74">
         <v>69</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E74">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1844,16 +1844,16 @@
         <v>73</v>
       </c>
       <c r="B75">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>29</v>
+      </c>
+      <c r="D75">
+        <v>63</v>
+      </c>
+      <c r="E75">
         <v>9</v>
-      </c>
-      <c r="C75">
-        <v>36</v>
-      </c>
-      <c r="D75">
-        <v>59</v>
-      </c>
-      <c r="E75">
-        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1861,16 +1861,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E76">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1878,13 +1878,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C77">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="E77">
         <v>68</v>
@@ -1895,16 +1895,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C78">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D79">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E79">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D80">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="E80">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1946,16 +1946,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C81">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D81">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E81">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1963,16 +1963,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C82">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D82">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E82">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1980,16 +1980,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C83">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E83">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1997,16 +1997,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D84">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E84">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2014,16 +2014,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C85">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2031,16 +2031,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C86">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D86">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E86">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2048,16 +2048,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C87">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="D87">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E87">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2065,16 +2065,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E88">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2082,16 +2082,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C89">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2099,16 +2099,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D90">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E90">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2116,16 +2116,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E91">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2133,16 +2133,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C92">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D92">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E92">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2150,16 +2150,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C93">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E93">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2167,16 +2167,16 @@
         <v>92</v>
       </c>
       <c r="B94">
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <v>10</v>
+      </c>
+      <c r="D94">
         <v>64</v>
       </c>
-      <c r="C94">
-        <v>60</v>
-      </c>
-      <c r="D94">
-        <v>52</v>
-      </c>
       <c r="E94">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2184,16 +2184,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C95">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2201,16 +2201,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E96">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2218,16 +2218,16 @@
         <v>95</v>
       </c>
       <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <v>63</v>
+      </c>
+      <c r="E97">
         <v>59</v>
-      </c>
-      <c r="C97">
-        <v>68</v>
-      </c>
-      <c r="D97">
-        <v>66</v>
-      </c>
-      <c r="E97">
-        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2235,16 +2235,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C98">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E98">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2252,16 +2252,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C99">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E99">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2269,16 +2269,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C100">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D100">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E100">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2286,16 +2286,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2347,16 +2347,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2364,16 +2364,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2381,16 +2381,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2398,16 +2398,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2415,16 +2415,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2432,16 +2432,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2449,16 +2449,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2466,16 +2466,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2483,16 +2483,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2500,16 +2500,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2517,13 +2517,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -2534,16 +2534,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C14">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2551,16 +2551,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2568,16 +2568,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
         <v>26</v>
       </c>
-      <c r="D16">
-        <v>55</v>
-      </c>
       <c r="E16">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2585,16 +2585,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2602,16 +2602,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2619,16 +2619,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2636,16 +2636,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>69</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2653,16 +2653,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2670,16 +2670,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2687,16 +2687,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2704,16 +2704,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C24">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2721,16 +2721,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E25">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2738,16 +2738,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2755,16 +2755,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="D27">
         <v>26</v>
       </c>
       <c r="E27">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2772,16 +2772,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2789,16 +2789,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C29">
+        <v>69</v>
+      </c>
+      <c r="D29">
         <v>26</v>
       </c>
-      <c r="D29">
-        <v>51</v>
-      </c>
       <c r="E29">
-        <v>72</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2806,16 +2806,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2823,16 +2823,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E31">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2840,16 +2840,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2857,16 +2857,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C33">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D33">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2874,16 +2874,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D34">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2891,16 +2891,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D35">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>76</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2908,16 +2908,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E36">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2925,16 +2925,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2942,16 +2942,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C38">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2959,16 +2959,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C39">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="E39">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2976,16 +2976,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C40">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D40">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E40">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2993,13 +2993,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>68</v>
@@ -3010,16 +3010,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C42">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3027,16 +3027,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3044,16 +3044,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C44">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D44">
+        <v>77</v>
+      </c>
+      <c r="E44">
         <v>76</v>
-      </c>
-      <c r="E44">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3061,16 +3061,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="D45">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E45">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3078,16 +3078,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C46">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3095,13 +3095,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C47">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -3112,16 +3112,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E48">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3129,16 +3129,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E49">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3146,16 +3146,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E50">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3163,16 +3163,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C51">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3180,16 +3180,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C52">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3197,16 +3197,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3214,16 +3214,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C54">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3231,13 +3231,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C55">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D55">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E55">
         <v>76</v>
@@ -3248,16 +3248,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C56">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E56">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3265,16 +3265,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E57">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3282,16 +3282,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C58">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E58">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3299,16 +3299,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="C59">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D59">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E59">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3316,16 +3316,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D60">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E60">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3333,16 +3333,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3350,16 +3350,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C62">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D62">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3367,16 +3367,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C63">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D63">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3384,16 +3384,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C64">
+        <v>69</v>
+      </c>
+      <c r="D64">
+        <v>70</v>
+      </c>
+      <c r="E64">
         <v>3</v>
-      </c>
-      <c r="D64">
-        <v>26</v>
-      </c>
-      <c r="E64">
-        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3401,16 +3401,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D65">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E65">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3418,16 +3418,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E66">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3435,16 +3435,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D67">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E67">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3452,16 +3452,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C68">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="D68">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E68">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3469,16 +3469,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C69">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E69">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3486,16 +3486,16 @@
         <v>68</v>
       </c>
       <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>79</v>
+      </c>
+      <c r="E70">
         <v>68</v>
-      </c>
-      <c r="C70">
-        <v>26</v>
-      </c>
-      <c r="D70">
-        <v>21</v>
-      </c>
-      <c r="E70">
-        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3503,16 +3503,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3520,16 +3520,16 @@
         <v>70</v>
       </c>
       <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <v>73</v>
+      </c>
+      <c r="E72">
         <v>75</v>
-      </c>
-      <c r="C72">
-        <v>36</v>
-      </c>
-      <c r="D72">
-        <v>4</v>
-      </c>
-      <c r="E72">
-        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3537,16 +3537,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="D73">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3554,16 +3554,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C74">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3571,16 +3571,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D75">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="E75">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3588,16 +3588,16 @@
         <v>74</v>
       </c>
       <c r="B76">
+        <v>69</v>
+      </c>
+      <c r="C76">
+        <v>69</v>
+      </c>
+      <c r="D76">
         <v>33</v>
       </c>
-      <c r="C76">
-        <v>33</v>
-      </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
       <c r="E76">
-        <v>78</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3605,16 +3605,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C77">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D77">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3622,16 +3622,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C78">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3639,16 +3639,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D79">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E79">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3656,13 +3656,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C80">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D80">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E80">
         <v>73</v>
@@ -3673,16 +3673,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C81">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D81">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3690,16 +3690,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C82">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3707,16 +3707,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="C83">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D83">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E83">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3724,16 +3724,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C84">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D84">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3741,16 +3741,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C85">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3758,16 +3758,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E86">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3775,16 +3775,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C87">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D87">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E87">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3792,16 +3792,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C88">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E88">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3809,16 +3809,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C89">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D89">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E89">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3826,16 +3826,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C90">
+        <v>69</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
         <v>73</v>
-      </c>
-      <c r="D90">
-        <v>52</v>
-      </c>
-      <c r="E90">
-        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3843,16 +3843,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C91">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="E91">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3860,16 +3860,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C92">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D92">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3877,16 +3877,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C93">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="E93">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3894,16 +3894,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C94">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D94">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="E94">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3911,16 +3911,16 @@
         <v>93</v>
       </c>
       <c r="B95">
+        <v>69</v>
+      </c>
+      <c r="C95">
+        <v>72</v>
+      </c>
+      <c r="D95">
+        <v>73</v>
+      </c>
+      <c r="E95">
         <v>33</v>
-      </c>
-      <c r="C95">
-        <v>51</v>
-      </c>
-      <c r="D95">
-        <v>45</v>
-      </c>
-      <c r="E95">
-        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3928,16 +3928,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C96">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E96">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3945,16 +3945,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C97">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D97">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E97">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3962,16 +3962,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C98">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E98">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3979,16 +3979,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C99">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D99">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E99">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3996,16 +3996,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C100">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="D100">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E100">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4013,16 +4013,16 @@
         <v>99</v>
       </c>
       <c r="B101">
+        <v>69</v>
+      </c>
+      <c r="C101">
+        <v>72</v>
+      </c>
+      <c r="D101">
+        <v>21</v>
+      </c>
+      <c r="E101">
         <v>75</v>
-      </c>
-      <c r="C101">
-        <v>75</v>
-      </c>
-      <c r="D101">
-        <v>38</v>
-      </c>
-      <c r="E101">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4057,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4074,16 +4074,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
         <v>74</v>
-      </c>
-      <c r="D3">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4094,13 +4094,13 @@
         <v>84</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4108,16 +4108,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>81</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4125,16 +4125,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4142,16 +4142,16 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
         <v>81</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
       <c r="D7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>40</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4159,16 +4159,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4176,16 +4176,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4193,16 +4193,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4210,16 +4210,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4227,16 +4227,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4244,16 +4244,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E13">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4261,16 +4261,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4278,16 +4278,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D15">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4298,13 +4298,13 @@
         <v>84</v>
       </c>
       <c r="C16">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E16">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4312,16 +4312,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4329,13 +4329,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -4346,16 +4346,16 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>61</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
         <v>84</v>
-      </c>
-      <c r="C19">
-        <v>84</v>
-      </c>
-      <c r="D19">
-        <v>58</v>
-      </c>
-      <c r="E19">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4363,16 +4363,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E20">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4380,16 +4380,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4397,16 +4397,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4414,13 +4414,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -4431,16 +4431,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4448,16 +4448,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E25">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4468,13 +4468,13 @@
         <v>84</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4485,13 +4485,13 @@
         <v>84</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4499,16 +4499,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4516,16 +4516,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C29">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4533,16 +4533,16 @@
         <v>28</v>
       </c>
       <c r="B30">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30">
         <v>82</v>
-      </c>
-      <c r="C30">
-        <v>75</v>
-      </c>
-      <c r="D30">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4550,16 +4550,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4567,16 +4567,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E32">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4584,16 +4584,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>7</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4601,16 +4601,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4618,16 +4618,16 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>81</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>82</v>
+      </c>
+      <c r="E35">
         <v>84</v>
-      </c>
-      <c r="C35">
-        <v>79</v>
-      </c>
-      <c r="D35">
-        <v>47</v>
-      </c>
-      <c r="E35">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4635,16 +4635,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C36">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4652,16 +4652,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C37">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4669,16 +4669,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E38">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4686,16 +4686,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4703,16 +4703,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D40">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4720,16 +4720,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4737,16 +4737,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4754,16 +4754,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C43">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="E43">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4771,16 +4771,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C44">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4791,13 +4791,13 @@
         <v>84</v>
       </c>
       <c r="C45">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45">
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4805,16 +4805,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E46">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4822,16 +4822,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C47">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D47">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4839,16 +4839,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E48">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4856,16 +4856,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D49">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E49">
-        <v>78</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4873,16 +4873,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="E50">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4893,13 +4893,13 @@
         <v>81</v>
       </c>
       <c r="C51">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E51">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4907,16 +4907,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4927,13 +4927,13 @@
         <v>84</v>
       </c>
       <c r="C53">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E53">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4941,16 +4941,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C54">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E54">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4958,16 +4958,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="E55">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4978,13 +4978,13 @@
         <v>84</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D56">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4992,16 +4992,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C57">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="E57">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5009,16 +5009,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C58">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D58">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E58">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5026,16 +5026,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C59">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="E59">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5043,16 +5043,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5060,16 +5060,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C61">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D61">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E61">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5077,16 +5077,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5094,16 +5094,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E63">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5111,16 +5111,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D64">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E64">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5128,16 +5128,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E65">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5145,16 +5145,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C66">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D66">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E66">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5165,13 +5165,13 @@
         <v>84</v>
       </c>
       <c r="C67">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D67">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5179,16 +5179,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D68">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5196,16 +5196,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D69">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E69">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5213,16 +5213,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C70">
         <v>84</v>
       </c>
       <c r="D70">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5233,13 +5233,13 @@
         <v>84</v>
       </c>
       <c r="C71">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="E71">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5247,16 +5247,16 @@
         <v>70</v>
       </c>
       <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
         <v>83</v>
       </c>
-      <c r="C72">
-        <v>7</v>
-      </c>
-      <c r="D72">
-        <v>17</v>
-      </c>
       <c r="E72">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5264,16 +5264,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C73">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E73">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5281,16 +5281,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E74">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5298,16 +5298,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C75">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="D75">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E75">
-        <v>84</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5321,10 +5321,10 @@
         <v>7</v>
       </c>
       <c r="D76">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="E76">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5335,13 +5335,13 @@
         <v>84</v>
       </c>
       <c r="C77">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="D77">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5349,13 +5349,13 @@
         <v>76</v>
       </c>
       <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78">
         <v>4</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-      <c r="D78">
-        <v>60</v>
       </c>
       <c r="E78">
         <v>78</v>
@@ -5366,16 +5366,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C79">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5383,16 +5383,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5400,16 +5400,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="C81">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D81">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E81">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5417,16 +5417,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C82">
         <v>7</v>
       </c>
       <c r="D82">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E82">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5434,16 +5434,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E83">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5451,13 +5451,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D84">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E84">
         <v>74</v>
@@ -5468,16 +5468,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C85">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E85">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5485,16 +5485,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C86">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D86">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E86">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5502,16 +5502,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E87">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5522,13 +5522,13 @@
         <v>84</v>
       </c>
       <c r="C88">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D88">
+        <v>56</v>
+      </c>
+      <c r="E88">
         <v>17</v>
-      </c>
-      <c r="E88">
-        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5536,16 +5536,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C89">
         <v>7</v>
       </c>
       <c r="D89">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5553,10 +5553,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C90">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -5570,16 +5570,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C91">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="E91">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5587,16 +5587,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="C92">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="E92">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5604,16 +5604,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5621,16 +5621,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D94">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5638,16 +5638,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="C95">
         <v>4</v>
       </c>
       <c r="D95">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E95">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5655,16 +5655,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D96">
         <v>41</v>
       </c>
       <c r="E96">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5672,16 +5672,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D97">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E97">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5689,16 +5689,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E98">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5706,16 +5706,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C99">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="D99">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E99">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5723,16 +5723,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C100">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D100">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="E100">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5740,16 +5740,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E101">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5784,16 +5784,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5801,16 +5801,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5818,16 +5818,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5835,16 +5835,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5852,16 +5852,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5869,16 +5869,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5886,16 +5886,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5903,16 +5903,16 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
         <v>50</v>
       </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>59</v>
-      </c>
       <c r="E9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5920,16 +5920,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5937,16 +5937,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5954,16 +5954,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5971,16 +5971,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E13">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5988,16 +5988,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E14">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6005,16 +6005,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6022,16 +6022,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E16">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6039,16 +6039,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6056,16 +6056,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6073,16 +6073,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6090,16 +6090,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E20">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6107,16 +6107,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D21">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E21">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6124,16 +6124,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6141,16 +6141,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6158,16 +6158,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6175,16 +6175,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E25">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6192,16 +6192,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6209,16 +6209,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E27">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6226,16 +6226,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E28">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6243,16 +6243,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E29">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6260,16 +6260,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6277,16 +6277,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6294,16 +6294,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C32">
+        <v>37</v>
+      </c>
+      <c r="D32">
         <v>60</v>
       </c>
-      <c r="D32">
-        <v>81</v>
-      </c>
       <c r="E32">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6311,16 +6311,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6328,16 +6328,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E34">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6345,16 +6345,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6362,16 +6362,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D36">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6379,16 +6379,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>28</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6396,16 +6396,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C38">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E38">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6413,16 +6413,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
         <v>75</v>
-      </c>
-      <c r="E39">
-        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6430,16 +6430,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="E40">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -6447,16 +6447,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D41">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -6464,16 +6464,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -6481,16 +6481,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E43">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -6498,16 +6498,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -6515,16 +6515,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E45">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6532,16 +6532,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D46">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6549,16 +6549,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E47">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6566,16 +6566,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E48">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6583,16 +6583,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E49">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -6600,16 +6600,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -6617,16 +6617,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6634,16 +6634,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="E52">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6651,16 +6651,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D53">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E53">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6668,16 +6668,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E54">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -6685,16 +6685,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D55">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6702,16 +6702,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6719,16 +6719,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C57">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D57">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E57">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -6736,16 +6736,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C58">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E58">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -6753,16 +6753,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="C59">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E59">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6770,16 +6770,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D60">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="E60">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6787,16 +6787,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E61">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -6804,16 +6804,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D62">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6821,16 +6821,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C63">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D63">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -6838,16 +6838,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C64">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -6855,16 +6855,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C65">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E65">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6872,16 +6872,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E66">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6889,16 +6889,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E67">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6906,16 +6906,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C68">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D68">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E68">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6923,16 +6923,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D69">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6940,16 +6940,16 @@
         <v>68</v>
       </c>
       <c r="B70">
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>28</v>
+      </c>
+      <c r="D70">
+        <v>59</v>
+      </c>
+      <c r="E70">
         <v>53</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-      <c r="D70">
-        <v>14</v>
-      </c>
-      <c r="E70">
-        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -6957,16 +6957,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C71">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D71">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E71">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6974,16 +6974,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D72">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E72">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6991,16 +6991,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D73">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="E73">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -7008,16 +7008,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C74">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="E74">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -7025,16 +7025,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D75">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E75">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -7042,16 +7042,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C76">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D76">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E76">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7059,16 +7059,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C77">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D77">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E77">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -7076,16 +7076,16 @@
         <v>76</v>
       </c>
       <c r="B78">
+        <v>83</v>
+      </c>
+      <c r="C78">
         <v>28</v>
       </c>
-      <c r="C78">
-        <v>23</v>
-      </c>
       <c r="D78">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -7093,16 +7093,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="E79">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7110,16 +7110,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D80">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E80">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -7127,16 +7127,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C81">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D81">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E81">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -7144,16 +7144,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="D82">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E82">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7161,16 +7161,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C83">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D83">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E83">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -7178,16 +7178,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C84">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="D84">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -7195,16 +7195,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C85">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D85">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="E85">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -7212,16 +7212,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C86">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D86">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E86">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -7229,16 +7229,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C87">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D87">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E87">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -7246,16 +7246,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C88">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D88">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="E88">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -7263,16 +7263,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C89">
         <v>28</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E89">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -7280,16 +7280,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C90">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D90">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -7297,16 +7297,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C91">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D91">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E91">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -7314,16 +7314,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D92">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E92">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -7331,16 +7331,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C93">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="E93">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -7348,16 +7348,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C94">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D94">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -7365,16 +7365,16 @@
         <v>93</v>
       </c>
       <c r="B95">
+        <v>37</v>
+      </c>
+      <c r="C95">
+        <v>37</v>
+      </c>
+      <c r="D95">
+        <v>74</v>
+      </c>
+      <c r="E95">
         <v>80</v>
-      </c>
-      <c r="C95">
-        <v>5</v>
-      </c>
-      <c r="D95">
-        <v>45</v>
-      </c>
-      <c r="E95">
-        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7382,16 +7382,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C96">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D96">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E96">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -7399,16 +7399,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D97">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="E97">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -7416,16 +7416,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C98">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D98">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E98">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -7433,13 +7433,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D99">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="E99">
         <v>79</v>
@@ -7450,13 +7450,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D100">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E100">
         <v>44</v>
@@ -7467,16 +7467,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C101">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="D101">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="E101">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
